--- a/AoC_2024/Day_03.xlsx
+++ b/AoC_2024/Day_03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28407"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AOC_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C7A4AB-6A3F-495A-938D-22EAB866F525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987DC587-774B-48BF-ABD3-371577B29EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="1260" windowWidth="28725" windowHeight="17010" activeTab="1" xr2:uid="{E8ED5CC5-048E-46E5-89F0-A8BEFA4729A3}"/>
+    <workbookView xWindow="8505" yWindow="1020" windowWidth="27060" windowHeight="16965" xr2:uid="{E8ED5CC5-048E-46E5-89F0-A8BEFA4729A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1-PY" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>mul(168,87)}*:mul(911,800)(%,)where()#&amp;&amp;$mul(734,19)?when()why(){$:?mul(829,495)do()mul(724,312){;^mul(520,383) mul(137,485)select()-mul(700,211) &lt;(who()who()/mul(295,600)]~&lt;select()'$why()do()when()mul(310,255)^}where()who()(!+mul(16,916),)what()@:@#where()mul(918,822),when()~/)mul(177,722)&lt;&amp;]:who()where()&gt;mul(439,650)?+$mul(349,399)mul(807,317)what()?@[%mul(674,778)!mul(104,928)~[!!mul(60,636){where()when()&amp;@why()-+mul(742,28)select()why()'&amp;why()@&gt;select()mul(527,483)mul(797,855)how()mul(502,647)what() {(*'}%mul(688,600))!??,+$mul(538,127)&amp;from(),&gt;~&amp;*mul(963,787)~mul(820,259)~}~how()&gt;do()what()^&lt;}[?{'mul(202,9)$select(795,484);from()&lt;!mul(913,93)/{{what()#-select()how()]mul(520,288),^&amp;what()mul(583,623)mul(657,601)&gt;;^@what()mul(671,74)&amp;@how(151,76)!?:{mul(933,567)/)&amp;select()do()&gt;+,~?&gt;mul(627,488) *mul(437,91){!#}%?how()who()mul(741,704)select():where()mul(258,129),&amp;why():)mul(770,13)@ from()?-!what()$mul(229,613)from() select()why()};select()mul(59,263)where()from(97,930)?where()mul(514,278)(-don't()&amp;$[how()why(783,866)&amp;who(589,80)#; mul(130,239)don't()mul(195,249),~&gt;&gt;who()mul(945,698) /}how()&gt;mul(983,248)[~why()({from()-(how()?mul(206,469)&amp;&gt;~who()]mul(661,410)how()&amp;mul(768,601)/!--select()&gt;,%mul(455,805)(}]how();&lt;who(735,631)why()mul(216,340))what(181,514)mul(736,427)^when()]$%where()'&lt;;mul(754,836)*@!why()select()]mul(869,551)~mul(752,713) &lt;(~&amp;@#mul(124,162)why()/mul(512,273); /where()why()mul(471,915)/(where():?}mul(608,515){[@:'select()[][ mul(983,96)%where(),why(){~-+]mul(102,860):#?select()%who(105,947):who(416,728)mul(765,635)@(mul(898,549)$where(580,81){mul(497,154)&gt;/from())mul(728,180)'(what()[mul(915,20)who()+&amp;don't()select()^)}$!who()+&gt;mul(481,439)- *mul(332,923)when()-why()!mul(625,335)?mul(156,134)why()*'$:mul(104,186)^?#&gt;/mul(605,863),,?mul(161,457)!#~,#~&gt;/mul(514how()where(),'$;'$+)mul(207,90)&amp;&gt;$how()mul(394,95),where()'mul(827,742)how()[from()(]:/why()$+mul(46,294)&gt;who()who()^@[^mul(500,356){]{mul(989,398)(}: mul(300,17):how()who()%?#@why()!mul(362,556)&gt;$mul(29,294)who()&lt;;when()mul(108,898),#&lt;&lt;~-*(where()@mul(86,710),'-$&amp;what()(mul(573,832)),?{mul(953,794)why()^what()-*,/?)mul(511,634):how()/how()'what()what()mul(709,593)]mul(721,842)(!&amp;why()where()&amp;mul(259,304/$[*why()+#mul(932,748)? {mul(979,591)mul(576,282)(-when():^,select()&gt;@mul(146,41){[&lt;#(#'*}mul(615,174)&amp;&gt;when()what()&amp;(mul(914,488)[~why(267,875)mul(167,385)+&lt;%~}@![why()mul(221,316):,;[:@(!who()mul(340,617)&amp;*how()%mul(151,744) &gt;},-)'?mul(414,238)mul(100,868)%%what()where()mul(467,880):mul(266,276)!@!#'who()'mul(500,629)[#^select()*+how()(mul(538,599):* [;'mul(919,315)mul(760,200) &lt;$/$}{why()'(mul(794,683)from()**'$,}}mul(915,608)&gt;$$mul(114,893)what()select()do():^from()??from()from()^mul(316,793)&gt;'/when()+mul(199,368)[~mul(539,838) ^(*??%mul(162,286){mul(647,357)who()$(&gt;what()?,why()&gt;from()mul(239,449){select()who()mul(408,790)mul(567,879)</t>
   </si>
@@ -3643,12 +3643,6 @@
     <t>SUMA(B18#*C18#)</t>
   </si>
   <si>
-    <t>Text Part 1</t>
-  </si>
-  <si>
-    <t>Text Part 2</t>
-  </si>
-  <si>
     <t>Input</t>
   </si>
   <si>
@@ -3665,6 +3659,15 @@
   </si>
   <si>
     <t>SUMA(H18#*I18#*J18#)</t>
+  </si>
+  <si>
+    <t>Test Part 1</t>
+  </si>
+  <si>
+    <t>Test Part 2</t>
+  </si>
+  <si>
+    <t>Credits: Excel Wizard</t>
   </si>
 </sst>
 </file>
@@ -4340,6 +4343,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -4351,10 +4357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D1B0AC-931A-427E-8AFB-E27DEEA46056}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4362,9 +4368,10 @@
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4372,16 +4379,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -4389,16 +4397,16 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -4406,18 +4414,18 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -4425,18 +4433,18 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -4444,16 +4452,16 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -4461,15 +4469,15 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -4477,18 +4485,18 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -4496,10 +4504,10 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="G9" s="6"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -4507,16 +4515,16 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15">
+    </row>
+    <row r="10" spans="1:14">
       <c r="C10" s="3" t="str" cm="1">
         <f t="array" ref="C10">_xlfn._xlws.PY(0,0,A8)</f>
         <v>Data Processing</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -4524,12 +4532,12 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="G11" s="9" t="s">
+    </row>
+    <row r="11" spans="1:14">
+      <c r="F11" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -4537,10 +4545,10 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="G12" s="6"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -4548,15 +4556,15 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15">
+    </row>
+    <row r="13" spans="1:14">
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -4564,9 +4572,8 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15">
+    </row>
+    <row r="14" spans="1:14">
       <c r="C14" s="3" cm="1" vm="1">
         <f t="array" ref="C14">_xlfn._xlws.PY(1,1)</f>
         <v>166630675</v>
@@ -4574,9 +4581,10 @@
       <c r="D14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -4584,12 +4592,12 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="G15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:14">
+      <c r="F15" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -4597,15 +4605,15 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15">
+    </row>
+    <row r="16" spans="1:14">
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -4613,9 +4621,8 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="3:15">
+    </row>
+    <row r="17" spans="3:14">
       <c r="C17" s="3" cm="1" vm="2">
         <f t="array" ref="C17">_xlfn._xlws.PY(2,1)</f>
         <v>93465710</v>
@@ -4623,9 +4630,10 @@
       <c r="D17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -4633,12 +4641,12 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="3:15">
-      <c r="G18" s="11" t="s">
+    </row>
+    <row r="18" spans="3:14">
+      <c r="F18" s="11" t="s">
         <v>23</v>
       </c>
+      <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -4646,7 +4654,6 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4657,8 +4664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECC0FC1-04F4-4C60-BD54-1FE226540866}">
   <dimension ref="A1:R773"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
@@ -4684,10 +4691,13 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4879,7 +4889,7 @@
         <v>52</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R11" s="13" t="s">
         <v>36</v>
@@ -4887,7 +4897,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>8</v>
@@ -4917,7 +4927,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="J14" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>39</v>
@@ -4928,7 +4938,7 @@
         <v>51</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P15" s="14" cm="1">
         <f t="array" ref="P15">_xlfn.LET(_xlpm.a,_xlfn.TOCOL(_xlfn.REGEXEXTRACT(A13,"(do|don't)\(\)|mul\(\d+,\d+\)",1)),_xlpm.b,_xlfn.IFNA(_xlfn.REGEXEXTRACT(_xlpm.a,"\d+")*_xlfn.REGEXEXTRACT(_xlpm.a,",\K\d+"),0),
@@ -4944,7 +4954,7 @@
         <v>50</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R16" s="13" t="s">
         <v>40</v>
@@ -4955,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R17" s="13" t="s">
         <v>41</v>
